--- a/team_details.xlsx
+++ b/team_details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Full Kuliah\Semester 7\GitHub\praktikumML_314_321\kelompok_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Full Kuliah\Semester 7\GitHub\praktikumML_314_321\Kelompok\praktikumML_314_321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A02702-DFFA-430F-88CF-57F5688B78A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBAB5ED-FFDB-43CE-9D4E-BC55E1F6B683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7D4FF659-6BB0-4C2E-85CB-F67C0D360091}"/>
   </bookViews>
@@ -51,26 +51,26 @@
     <t>Judul Artikel</t>
   </si>
   <si>
-    <t>https://www.kaggle.com/snish9/rsnabrats20212d</t>
-  </si>
-  <si>
-    <t>The RSNA-ASNR-MICCAI BraTS 2021 Benchmark on Brain Tumor Segmentation and Radiogenomic Classification</t>
-  </si>
-  <si>
-    <t>rsna-brats-2021-2d</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2107.02314</t>
-  </si>
-  <si>
-    <t>Klasifikasi Tumor Ota Menggunakan Machine Learning</t>
+    <t>KLASIFIKASI RONTGEN DADA MENGGUNAKAN DEEP LEARNING</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/jtiptj/chest-xray-pneumoniacovid19tuberculosis</t>
+  </si>
+  <si>
+    <t>Chest X-Ray (Pneumonia, Covid-19, Tuberculosis)</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2004.05405.pdf</t>
+  </si>
+  <si>
+    <t>UNVEILING COVID-19 FROM CHEST X-RAY WITH DEEP LEARNING: A HURDLES RACE WITH SMALL DATA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +82,14 @@
       <b/>
       <sz val="8"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,10 +112,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -118,8 +127,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -435,7 +446,7 @@
   <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,19 +484,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -498,7 +509,11 @@
   <mergeCells count="1">
     <mergeCell ref="B3:B4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{6F3D442B-AD35-4340-A042-AA7C586129F9}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{BE5F998E-4FCA-4CA5-A78F-BF2C24791A3B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>